--- a/4-Analysis/Neural Network/Neural Network A1-test.xlsx
+++ b/4-Analysis/Neural Network/Neural Network A1-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D041CA5-C827-494A-B1DA-F7609420E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F918E-3616-46C1-86E9-741EF554B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neural Network A1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="70">
   <si>
     <t>Neural Network (ANN) - Test Cases</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>100 ~500</t>
-  </si>
-  <si>
-    <t>Test case 1.0</t>
   </si>
   <si>
     <t xml:space="preserve">Results </t>
@@ -385,6 +382,146 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Hidden Layers</t>
+  </si>
+  <si>
+    <r>
+      <t>Num of Iterations:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Num of Iterations:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Num of Iterations:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Num of Iterations:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+  </si>
+  <si>
+    <t>Num of Iterations</t>
+  </si>
+  <si>
+    <r>
+      <t>Regularization:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regularization:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regularization:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Regularization:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,8 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,12 +742,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="127">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -674,6 +850,32 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -686,18 +888,167 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -722,13 +1073,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -995,6 +1343,30 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
@@ -1012,6 +1384,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
@@ -1168,59 +1552,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="828675"/>
-          <a:ext cx="581025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2778,30 +3109,2544 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>298739</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14297025" y="209550"/>
+              <a:ext cx="1460789" cy="1714500"/>
+              <a:chOff x="5105400" y="504825"/>
+              <a:chExt cx="1457325" cy="1143000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4097" name="Button 1" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s4097"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="504825"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Average</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4098" name="Button 2" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s4098"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="923925"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Process Data</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4099" name="Button 3" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s4099"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="1343025"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Performance</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="3981450"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="7029450"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>155864</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="12" name="Group 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8410575" y="3381375"/>
+              <a:ext cx="1460789" cy="1866900"/>
+              <a:chOff x="5105400" y="504825"/>
+              <a:chExt cx="1457325" cy="1143000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5121" name="Button 1" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s5121"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="504825"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Average</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5122" name="Button 2" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s5122"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="923925"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Process Data</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5123" name="Button 3" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s5123"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="1343025"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Performance</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21689835-C01E-4EEF-927D-418AB350B1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="2438400"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04B907E-FBD1-4090-BC6D-5E4F0C1D779F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3981450"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8703EBF1-ECB2-4F1D-8806-1BC23B759985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42B11D3-BBBC-4BC8-B535-85EFF4D2AE93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C862FF4-41B8-4B43-BA79-8C759A23BC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F259C3AA-3909-48C4-A18E-09C9F9744930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38DECD5-E07E-4839-BCF0-00BA9ACB0A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C130D1FE-892F-4956-BE80-3802F4474259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88B8127-4C54-42BF-8019-DEA72B899E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5022C2B-5AC5-4DEC-A8C5-263210995963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="762000"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>114299</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>355890</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="15" name="Group 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE37601-95CE-4FEB-8843-5A7AF0099961}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="16306799" y="285750"/>
+              <a:ext cx="1460791" cy="2019300"/>
+              <a:chOff x="5105399" y="504825"/>
+              <a:chExt cx="1457327" cy="1143000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6145" name="Button 1" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s6145"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105399" y="504825"/>
+                <a:ext cx="1453869" cy="303245"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Average</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6146" name="Button 2" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s6146"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105401" y="923925"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Process Data</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6147" name="Button 3" hidden="1">
+                <a:extLst>
+                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                    <a14:compatExt spid="_x0000_s6147"/>
+                  </a:ext>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5105400" y="1343025"/>
+                <a:ext cx="1457325" cy="304800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:cs typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Calculate Performance</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCA56F1D-56CC-4C33-AB6A-E821F168797B}" name="Table1" displayName="Table1" ref="B4:B8" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCA56F1D-56CC-4C33-AB6A-E821F168797B}" name="Table1" displayName="Table1" ref="B4:B8" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="B4:B8" xr:uid="{FCA56F1D-56CC-4C33-AB6A-E821F168797B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{09C94BA0-FC13-452B-B394-D39BB46F2A7E}" name="1. Activation" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{09C94BA0-FC13-452B-B394-D39BB46F2A7E}" name="1. Activation" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1947B633-F957-4DAD-A833-AD320147A5F5}" name="Table622911" displayName="Table622911" ref="B10:B16" totalsRowShown="0" dataDxfId="43">
-  <autoFilter ref="B10:B16" xr:uid="{1947B633-F957-4DAD-A833-AD320147A5F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{57CE867F-BD79-48FD-80A8-42CA7A0230C3}" name="Table622913" displayName="Table622913" ref="B18:B24" totalsRowShown="0" dataDxfId="107">
+  <autoFilter ref="B18:B24" xr:uid="{57CE867F-BD79-48FD-80A8-42CA7A0230C3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{535505D7-16C0-4A70-BB5C-3259AFB9AC53}" name="Test case 1.2" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{A7DDED82-F68A-4658-9768-0CE664D3736F}" name="Test case 1.3" dataDxfId="106"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9E970B3B-CE6C-4E21-AFBD-91A557F65299}" name="Table12231014" displayName="Table12231014" ref="D18:D24" totalsRowShown="0">
+  <autoFilter ref="D18:D24" xr:uid="{9E970B3B-CE6C-4E21-AFBD-91A557F65299}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7E58B478-DCA7-4D7A-B1B7-1866C6F4EBD8}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E756CF2-AC2B-4BDA-9EBA-3C81E426DF5A}" name="Table622915" displayName="Table622915" ref="B26:B32" totalsRowShown="0" dataDxfId="105">
+  <autoFilter ref="B26:B32" xr:uid="{6E756CF2-AC2B-4BDA-9EBA-3C81E426DF5A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CBC103F7-B09B-42E6-9B02-382FA07457FD}" name="Test case 1.4" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9856DCAD-16D7-4AF1-83AE-D3710D2B52A3}" name="Table12231016" displayName="Table12231016" ref="D26:D32" totalsRowShown="0">
+  <autoFilter ref="D26:D32" xr:uid="{9856DCAD-16D7-4AF1-83AE-D3710D2B52A3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BDFBFD3E-EB22-4348-8BF2-37C465267CE7}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65353F47-102B-4078-8B0D-154ED492A205}" name="Table4699141" displayName="Table4699141" ref="G3:J7" totalsRowShown="0">
+  <autoFilter ref="G3:J7" xr:uid="{65353F47-102B-4078-8B0D-154ED492A205}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{88DDEBCF-6C85-4D77-8A4C-3BB5055C3731}" name="Activation" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{C1285D9F-986A-4CFD-9DC5-4194B556C6AF}" name="Accuracy (%)"/>
+    <tableColumn id="3" xr3:uid="{7A911EAF-9278-4C3F-A5CF-A0F730BFAF64}" name="Time taken (t) / s"/>
+    <tableColumn id="5" xr3:uid="{C17D5DC1-6CE3-4F37-955F-4776A9773FEA}" name="Performance (1/t)" dataDxfId="102"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{12029E7F-9AE2-4C27-B258-5AABE327B4C0}" name="Table62292024" displayName="Table62292024" ref="B10:B16" totalsRowShown="0" dataDxfId="101">
+  <autoFilter ref="B10:B16" xr:uid="{12029E7F-9AE2-4C27-B258-5AABE327B4C0}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8A4DB93C-CDF7-44E1-BAED-E7479F0F0166}" name="Test case 2.1" dataDxfId="100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FD394EBB-5A07-439C-847B-F3A0AE0DAE01}" name="Table1223102125" displayName="Table1223102125" ref="D10:D16" totalsRowShown="0">
+  <autoFilter ref="D10:D16" xr:uid="{FD394EBB-5A07-439C-847B-F3A0AE0DAE01}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5DC337FF-3442-468F-9BA9-5CDD8560DBD6}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{DDCDCED9-0E50-4C0C-A03F-5BA214FF1304}" name="Table62292026" displayName="Table62292026" ref="B18:B24" totalsRowShown="0" dataDxfId="99">
+  <autoFilter ref="B18:B24" xr:uid="{DDCDCED9-0E50-4C0C-A03F-5BA214FF1304}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E5536EB9-9117-4999-A205-A5AB92D78784}" name="Test case 2.1" dataDxfId="98"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{62971C1F-5CD3-413B-ABAE-9A9A206F2459}" name="Table1223102127" displayName="Table1223102127" ref="D18:D24" totalsRowShown="0">
+  <autoFilter ref="D18:D24" xr:uid="{62971C1F-5CD3-413B-ABAE-9A9A206F2459}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A6CCA3E3-6D03-44DE-8BDC-27D1EE8B6738}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{1E72F966-0555-437F-8A22-333EE1970D75}" name="Table62291130" displayName="Table62291130" ref="G2:G8" totalsRowShown="0" dataDxfId="97">
+  <autoFilter ref="G2:G8" xr:uid="{1E72F966-0555-437F-8A22-333EE1970D75}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DE1EF4FC-903F-48F1-AD0C-4EAE7317A844}" name="Test case 2.2" dataDxfId="96"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0ECC6A2-EE97-4147-B0FE-05AD65179CFF}" name="Table2" displayName="Table2" ref="B10:B13" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="B10:B13" xr:uid="{F0ECC6A2-EE97-4147-B0FE-05AD65179CFF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C9FD93A8-7F4D-4E93-9B91-4339541C100B}" name="2.Solver" dataDxfId="121"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{91A43CDA-9E42-4AB8-B807-5EC04A46B608}" name="Table1223101231" displayName="Table1223101231" ref="I2:I8" totalsRowShown="0">
+  <autoFilter ref="I2:I8" xr:uid="{91A43CDA-9E42-4AB8-B807-5EC04A46B608}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7A0FB313-0EBE-4417-80C5-5D033FF5B9FF}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{50D3013A-00B4-4F21-B6F9-3773FBA6129B}" name="Table6229113034" displayName="Table6229113034" ref="G18:G24" totalsRowShown="0" dataDxfId="95">
+  <autoFilter ref="G18:G24" xr:uid="{50D3013A-00B4-4F21-B6F9-3773FBA6129B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{FB2FB59D-9A16-448C-AB1C-E30699839FAE}" name="Test case 2.2" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{CFE58A83-CC3C-491C-B729-F75F080D6471}" name="Table122310123135" displayName="Table122310123135" ref="I18:I24" totalsRowShown="0">
+  <autoFilter ref="I18:I24" xr:uid="{CFE58A83-CC3C-491C-B729-F75F080D6471}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7E0D1A3B-1B26-4ECB-AF0A-E901185BA722}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{94DF32EA-9983-4BAB-B218-C8639B593B03}" name="Table46991413739" displayName="Table46991413739" ref="L9:O12" totalsRowShown="0">
+  <autoFilter ref="L9:O12" xr:uid="{94DF32EA-9983-4BAB-B218-C8639B593B03}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CEC2511C-C612-4FBF-9EA3-736F19FA1B92}" name="Solver" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{2D2368F8-6E40-4D87-9493-B5C467D80B98}" name="Accuracy (%)"/>
+    <tableColumn id="3" xr3:uid="{773D3862-8A98-407C-B21F-D696CBCEE18E}" name="Time taken (t) / s"/>
+    <tableColumn id="5" xr3:uid="{3DB8FF20-7099-4637-8DBB-216A34E9EDC6}" name="Performance (1/t)" dataDxfId="92"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00EA19B6-DB7F-4F27-8407-172227A6A6FE}" name="Table469914137" displayName="Table469914137" ref="L3:O6" totalsRowShown="0">
+  <autoFilter ref="L3:O6" xr:uid="{00EA19B6-DB7F-4F27-8407-172227A6A6FE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{22ECD6B1-85AA-4524-B5A0-3F2EAB6C66A3}" name="Solver" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{E9090169-6CDA-4089-B1E5-393D485FA74A}" name="Accuracy (%)"/>
+    <tableColumn id="3" xr3:uid="{CF0DAF80-2106-48C4-AACD-A9AAE4892BC8}" name="Time taken (t) / s"/>
+    <tableColumn id="5" xr3:uid="{2E0EA27B-58E4-4DD1-950E-D6310C31A4C0}" name="Performance (1/t)" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{BBB23E93-2087-4697-97D3-045860F808A7}" name="Table622960" displayName="Table622960" ref="B2:B8" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="B2:B8" xr:uid="{BBB23E93-2087-4697-97D3-045860F808A7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{20DBDD6D-A7F3-4AFB-A214-E27391F1163E}" name="Test case 1.1" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{5EECF758-C0D2-43FD-8809-C8F30A6F247D}" name="Table12231061" displayName="Table12231061" ref="D2:D8" totalsRowShown="0">
+  <autoFilter ref="D2:D8" xr:uid="{5EECF758-C0D2-43FD-8809-C8F30A6F247D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{32C56AF0-8D49-4793-A774-1380F1F99060}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{75BEB5A3-2CEA-4C5B-8353-A5409C247563}" name="Table62291162" displayName="Table62291162" ref="G10:G16" totalsRowShown="0" dataDxfId="87">
+  <autoFilter ref="G10:G16" xr:uid="{75BEB5A3-2CEA-4C5B-8353-A5409C247563}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9C21747C-7421-48B3-BD0C-55581E225C5E}" name="Test case 1.2" dataDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{8D1D6551-1F17-4FCA-8E64-8CAED7DF5447}" name="Table1223101263" displayName="Table1223101263" ref="I10:I16" totalsRowShown="0">
+  <autoFilter ref="I10:I16" xr:uid="{8D1D6551-1F17-4FCA-8E64-8CAED7DF5447}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{81091DA8-6E43-4823-9C3F-28E29CD04B7E}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{349492E5-4966-4291-B675-869AF528D493}" name="Table62292041" displayName="Table62292041" ref="B2:B8" totalsRowShown="0" dataDxfId="85">
+  <autoFilter ref="B2:B8" xr:uid="{349492E5-4966-4291-B675-869AF528D493}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F7AEF10B-6DEA-48EC-8F93-1317663B725C}" name="Test case 2.1" dataDxfId="84"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8B164D0-2279-484A-949B-DF2EECFEFC2C}" name="Table3" displayName="Table3" ref="B15:B19" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+  <autoFilter ref="B15:B19" xr:uid="{B8B164D0-2279-484A-949B-DF2EECFEFC2C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C2B458CB-B504-4A93-A67B-8A204417F0EC}" name="3.Neurons  &amp; Hidden layers" dataDxfId="118"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{FC11BEEB-D3F6-4480-BC24-400D5DF2BB78}" name="Table1223102142" displayName="Table1223102142" ref="D2:D8" totalsRowShown="0">
+  <autoFilter ref="D2:D8" xr:uid="{FC11BEEB-D3F6-4480-BC24-400D5DF2BB78}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D7A3726B-1C89-4DA7-8F9F-4F152F9A26F6}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{E5AB1440-6D73-4DA8-9EA0-507CB0581808}" name="Table622911303243" displayName="Table622911303243" ref="G2:G8" totalsRowShown="0" dataDxfId="83">
+  <autoFilter ref="G2:G8" xr:uid="{E5AB1440-6D73-4DA8-9EA0-507CB0581808}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CC1011C6-3A17-419F-AA7C-B3AEA1EB08C8}" name="Test case 2.2" dataDxfId="82"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{8FD8BC0E-B781-4956-BD59-FB572367470D}" name="Table12231012313344" displayName="Table12231012313344" ref="I2:I8" totalsRowShown="0">
+  <autoFilter ref="I2:I8" xr:uid="{8FD8BC0E-B781-4956-BD59-FB572367470D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D774F245-F27B-473D-BAF6-15DFF81073D9}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{756ABB9C-58DB-41CA-81F9-8857CE47CCA1}" name="Table6229204117" displayName="Table6229204117" ref="B10:B16" totalsRowShown="0" dataDxfId="81">
+  <autoFilter ref="B10:B16" xr:uid="{756ABB9C-58DB-41CA-81F9-8857CE47CCA1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EB345FBF-C8F2-40D0-BB13-380F3A1C6B50}" name="Test case 2.1" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20F38536-ED5B-43F9-8318-88D93B650254}" name="Table122310214218" displayName="Table122310214218" ref="D10:D16" totalsRowShown="0">
+  <autoFilter ref="D10:D16" xr:uid="{20F38536-ED5B-43F9-8318-88D93B650254}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DA61FA30-1CA8-4A15-AEB6-FF5ECFE1E736}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{AD4F5263-CBA9-4240-B8E4-55A47992732C}" name="Table62291130324322" displayName="Table62291130324322" ref="G10:G16" totalsRowShown="0" dataDxfId="79">
+  <autoFilter ref="G10:G16" xr:uid="{AD4F5263-CBA9-4240-B8E4-55A47992732C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4B2E7233-CDEC-413B-AA88-62671CAC1E99}" name="Test case 2.2" dataDxfId="78"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{CF312E08-9D5B-4C8D-BB60-1023944FAFB4}" name="Table1223101231334423" displayName="Table1223101231334423" ref="I10:I16" totalsRowShown="0">
+  <autoFilter ref="I10:I16" xr:uid="{CF312E08-9D5B-4C8D-BB60-1023944FAFB4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{46D7EA75-7975-42F7-9762-39CB0563B7D1}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{5AAE64CD-0135-492A-B04E-17C652FDFC75}" name="Table6229204128" displayName="Table6229204128" ref="B18:B24" totalsRowShown="0" dataDxfId="77">
+  <autoFilter ref="B18:B24" xr:uid="{5AAE64CD-0135-492A-B04E-17C652FDFC75}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7FFB005E-7DF5-44FE-8913-DFE8B23EAA62}" name="Test case 2.1" dataDxfId="76"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{4F873F71-E7FE-4C1A-9D85-94CBC282AC9C}" name="Table122310214229" displayName="Table122310214229" ref="D18:D24" totalsRowShown="0">
+  <autoFilter ref="D18:D24" xr:uid="{4F873F71-E7FE-4C1A-9D85-94CBC282AC9C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3A5C7966-CDD2-4DA6-8027-F9ADD75CB50B}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{A55F340D-AD28-4FBB-A363-A665F98CEB07}" name="Table62291130324336" displayName="Table62291130324336" ref="G18:G24" totalsRowShown="0" dataDxfId="75">
+  <autoFilter ref="G18:G24" xr:uid="{A55F340D-AD28-4FBB-A363-A665F98CEB07}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E7861316-8ACA-4E9D-AA69-E0ADAA844ED5}" name="Test case 2.2" dataDxfId="74"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A05E8201-E031-48E8-BF32-BC20D5816F94}" name="Table4" displayName="Table4" ref="B21:B22" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+  <autoFilter ref="B21:B22" xr:uid="{A05E8201-E031-48E8-BF32-BC20D5816F94}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{042D4DB7-FBD3-4F62-8796-1DB36D0E050C}" name="4.Regularization" dataDxfId="115"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{4F49BD93-750C-4EEF-AB8E-902EC0D1100B}" name="Table1223101231334438" displayName="Table1223101231334438" ref="I18:I24" totalsRowShown="0">
+  <autoFilter ref="I18:I24" xr:uid="{4F49BD93-750C-4EEF-AB8E-902EC0D1100B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C7C1E128-DA71-4F8E-9431-A1F9F7AD4206}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{076D2C1E-84FA-45D8-9C6D-468C701355FD}" name="Table6229204140" displayName="Table6229204140" ref="B26:B32" totalsRowShown="0" dataDxfId="73">
+  <autoFilter ref="B26:B32" xr:uid="{076D2C1E-84FA-45D8-9C6D-468C701355FD}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9ECA9510-428B-48CE-AD1D-17AEA8356EBC}" name="Test case 2.1" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{EFF15FDC-08FD-4056-9DD6-80DA5A7B87E5}" name="Table122310214245" displayName="Table122310214245" ref="D26:D32" totalsRowShown="0">
+  <autoFilter ref="D26:D32" xr:uid="{EFF15FDC-08FD-4056-9DD6-80DA5A7B87E5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A75F69EB-3CB7-4521-B5C0-0F353282F88B}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{055CB891-0495-4814-B760-DA492D056BBF}" name="Table62291130324346" displayName="Table62291130324346" ref="G26:G32" totalsRowShown="0" dataDxfId="71">
+  <autoFilter ref="G26:G32" xr:uid="{055CB891-0495-4814-B760-DA492D056BBF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9FB49867-8F64-41B2-8350-FDD9202E3646}" name="Test case 2.2" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{57AF71E7-46CE-4DFC-8E62-86B46977652E}" name="Table1223101231334447" displayName="Table1223101231334447" ref="I26:I32" totalsRowShown="0">
+  <autoFilter ref="I26:I32" xr:uid="{57AF71E7-46CE-4DFC-8E62-86B46977652E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3101FF01-A355-4D9C-A94F-F25ED8EA90DE}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{25F8D4FA-5B8C-4E66-8D9D-409DDB95CD22}" name="Table6229204148" displayName="Table6229204148" ref="B34:B40" totalsRowShown="0" dataDxfId="69">
+  <autoFilter ref="B34:B40" xr:uid="{25F8D4FA-5B8C-4E66-8D9D-409DDB95CD22}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{01F98ECA-7E40-41F6-A075-EF01477C4637}" name="Test case 2.1" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{BC89A42D-738C-4EE2-B476-13AF9A5DB232}" name="Table122310214249" displayName="Table122310214249" ref="D34:D40" totalsRowShown="0">
+  <autoFilter ref="D34:D40" xr:uid="{BC89A42D-738C-4EE2-B476-13AF9A5DB232}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A3019AB6-65E4-4952-9765-9F0F4D74E88B}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{0C32E5A6-0685-41D1-8FF9-B0D1901F1125}" name="Table62291130324350" displayName="Table62291130324350" ref="G34:G40" totalsRowShown="0" dataDxfId="67">
+  <autoFilter ref="G34:G40" xr:uid="{0C32E5A6-0685-41D1-8FF9-B0D1901F1125}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{896974EB-7889-4FD3-A9E8-037884045BC2}" name="Test case 2.2" dataDxfId="66"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{2802FF54-E03A-4F6B-9280-7BDEC7CF9664}" name="Table1223101231334451" displayName="Table1223101231334451" ref="I34:I40" totalsRowShown="0">
+  <autoFilter ref="I34:I40" xr:uid="{2802FF54-E03A-4F6B-9280-7BDEC7CF9664}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{654DB4EC-7614-418F-B436-78AAF95E1CDD}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{A6354FB5-6303-4BCF-8273-E97BC6CDBD7F}" name="Table46991413721" displayName="Table46991413721" ref="L3:P8" totalsRowShown="0">
+  <autoFilter ref="L3:P8" xr:uid="{A6354FB5-6303-4BCF-8273-E97BC6CDBD7F}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{BF304C40-C105-46EA-B970-E8905743BDB3}" name="Hidden Layers" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{743FB2AC-BEEC-4171-95AC-343357DA1CBB}" name="Neurons" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{25D31235-3928-4C51-9984-43D1150682B4}" name="Accuracy (%)" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{AFEC7251-8128-4B7F-A0A9-3B2056F161D0}" name="Time taken (t) / s" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{1B9E9536-DE9C-4292-A078-BE839CE11965}" name="Performance (1/t)" dataDxfId="61"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A411BF91-C0F0-46FB-BA5B-37F8D57C849D}" name="Table5" displayName="Table5" ref="B24:B25" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+  <autoFilter ref="B24:B25" xr:uid="{A411BF91-C0F0-46FB-BA5B-37F8D57C849D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C1AB7A03-F5F4-4938-AEF4-DA249FBF68E7}" name="5.Num of Iterations" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F81021D-63F7-4C98-8005-D0CBC3D504AF}" name="Table4699141372133" displayName="Table4699141372133" ref="L11:P16" totalsRowShown="0">
+  <autoFilter ref="L11:P16" xr:uid="{7F81021D-63F7-4C98-8005-D0CBC3D504AF}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{2CB3DA00-53A7-44A6-B97B-7FD106DA9F25}" name="Hidden Layers" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{5FC3DB68-A4F6-44EC-BEC9-CF0C64093862}" name="Neurons" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{77BDEF14-AF9D-4C22-A0B8-E3BE492F6AD2}" name="Accuracy (%)" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{DDF77C0D-0F65-4E63-B877-E483BE062AB1}" name="Time taken (t) / s" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{1F2CAEF4-9255-4DED-B4E6-4D2CF30FBC68}" name="Performance (1/t)" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{9CD2A5EF-CCC4-47B9-A0F2-3A4E87B554CB}" name="Table622920412852" displayName="Table622920412852" ref="B2:B8" totalsRowShown="0" dataDxfId="55">
+  <autoFilter ref="B2:B8" xr:uid="{9CD2A5EF-CCC4-47B9-A0F2-3A4E87B554CB}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{97BF006D-848F-478B-B3FA-EAF3DBD84217}" name="Test case 2.1" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{71FE5086-3DD5-42AF-8C77-DBD66DAB0919}" name="Table12231021422953" displayName="Table12231021422953" ref="D2:D8" totalsRowShown="0">
+  <autoFilter ref="D2:D8" xr:uid="{71FE5086-3DD5-42AF-8C77-DBD66DAB0919}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{688156BF-A9BE-4F56-9924-E30E57C59CE1}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{6ABCEEC3-8628-4E1F-BC18-348AAB03D818}" name="Table6229113032435054" displayName="Table6229113032435054" ref="G2:G8" totalsRowShown="0" dataDxfId="53">
+  <autoFilter ref="G2:G8" xr:uid="{6ABCEEC3-8628-4E1F-BC18-348AAB03D818}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EEF58301-B3DF-4670-8B87-21255FD47B14}" name="Test case 2.2" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{082B6410-1E1C-4524-AF86-7F1366A2FE86}" name="Table122310123133445155" displayName="Table122310123133445155" ref="I2:I8" totalsRowShown="0">
+  <autoFilter ref="I2:I8" xr:uid="{082B6410-1E1C-4524-AF86-7F1366A2FE86}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{37B4D3FC-4C15-4485-BF9F-577198D6C227}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{EA786CA9-F5BC-493B-9CAB-AF37F552A295}" name="Table62292041285256" displayName="Table62292041285256" ref="B10:B16" totalsRowShown="0" dataDxfId="51">
+  <autoFilter ref="B10:B16" xr:uid="{EA786CA9-F5BC-493B-9CAB-AF37F552A295}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{764BDAA2-EF21-4F03-83A2-AEEB37D8A71B}" name="Test case 2.1" dataDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{5F259B9B-AF26-4AF7-8E33-842A298B4226}" name="Table1223102142295357" displayName="Table1223102142295357" ref="D10:D16" totalsRowShown="0">
+  <autoFilter ref="D10:D16" xr:uid="{5F259B9B-AF26-4AF7-8E33-842A298B4226}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8B3424D4-A242-4642-89CB-C13D0EE95C0F}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{77862647-A6E6-45CF-A3A3-E03109A5C794}" name="Table62292041285258" displayName="Table62292041285258" ref="B18:B24" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="B18:B24" xr:uid="{77862647-A6E6-45CF-A3A3-E03109A5C794}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3A95FCEA-CAB1-4948-8E5A-0F8AB58A7FF4}" name="Test case 2.1" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{E7DCB961-BE56-41B1-B19B-1E6FF48A8E9F}" name="Table1223102142295359" displayName="Table1223102142295359" ref="D18:D24" totalsRowShown="0">
+  <autoFilter ref="D18:D24" xr:uid="{E7DCB961-BE56-41B1-B19B-1E6FF48A8E9F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BF48926C-F6F8-43D7-A4C3-27ACA28F0011}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{069E6AF0-BA28-418C-99A9-A2361F5E51CE}" name="Table62292041285264" displayName="Table62292041285264" ref="B26:B32" totalsRowShown="0" dataDxfId="47">
+  <autoFilter ref="B26:B32" xr:uid="{069E6AF0-BA28-418C-99A9-A2361F5E51CE}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CAF3FC17-2EBC-4D13-8B44-310509400A4A}" name="Test case 2.1" dataDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91761294-FFA5-48B3-9182-954FA54708A5}" name="Table6229" displayName="Table6229" ref="B2:B8" totalsRowShown="0" dataDxfId="111">
+  <autoFilter ref="B2:B8" xr:uid="{91761294-FFA5-48B3-9182-954FA54708A5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3565CC02-D872-4D56-848B-D91800188008}" name="Test case 1.1" dataDxfId="110"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="64" xr:uid="{ADF10897-ADFA-49D5-ADBD-9966DD1E01A1}" name="Table1223102142295365" displayName="Table1223102142295365" ref="D26:D32" totalsRowShown="0">
+  <autoFilter ref="D26:D32" xr:uid="{ADF10897-ADFA-49D5-ADBD-9966DD1E01A1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DD825588-19C5-4D67-AA21-798E6996CC05}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{417029C6-39D7-4616-A9A2-DD3AFA54237F}" name="Table62292041285266" displayName="Table62292041285266" ref="B34:B40" totalsRowShown="0" dataDxfId="45">
+  <autoFilter ref="B34:B40" xr:uid="{417029C6-39D7-4616-A9A2-DD3AFA54237F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{721D39F9-49DB-499C-AA8F-3CACFC9C77EE}" name="Test case 2.1" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{54D1C301-D735-4356-A474-C642B6E9E049}" name="Table1223102142295367" displayName="Table1223102142295367" ref="D34:D40" totalsRowShown="0">
+  <autoFilter ref="D34:D40" xr:uid="{54D1C301-D735-4356-A474-C642B6E9E049}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8F9A3E61-250D-423B-98EF-45AA8527C05C}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="67" xr:uid="{834496C9-F289-4262-8076-16822116A350}" name="Table622911303243505468" displayName="Table622911303243505468" ref="G10:G16" totalsRowShown="0" dataDxfId="43">
+  <autoFilter ref="G10:G16" xr:uid="{834496C9-F289-4262-8076-16822116A350}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C568D782-4687-4A03-AC85-EBA7016E2990}" name="Test case 2.2" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{FE93A581-723D-4821-BC18-4C6114C32908}" name="Table12231012313344515569" displayName="Table12231012313344515569" ref="I10:I16" totalsRowShown="0">
+  <autoFilter ref="I10:I16" xr:uid="{FE93A581-723D-4821-BC18-4C6114C32908}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{335E667A-AABE-4984-8191-013AAC485267}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="69" xr:uid="{7A5EFCBF-8297-4846-8EBC-A6A8E96810A7}" name="Table622911303243505470" displayName="Table622911303243505470" ref="G18:G24" totalsRowShown="0" dataDxfId="41">
+  <autoFilter ref="G18:G24" xr:uid="{7A5EFCBF-8297-4846-8EBC-A6A8E96810A7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A7404D4B-E552-4287-B050-EDE34F2E8DC9}" name="Test case 2.2" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table66.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{B3582B0B-4C7E-4209-96F0-07B6160A9254}" name="Table12231012313344515571" displayName="Table12231012313344515571" ref="I18:I24" totalsRowShown="0">
+  <autoFilter ref="I18:I24" xr:uid="{B3582B0B-4C7E-4209-96F0-07B6160A9254}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{CC1B18B7-D238-4F85-B505-C6DB118DFF8E}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table67.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="71" xr:uid="{38184B53-9AC0-4040-A722-2E96CF1AF113}" name="Table622911303243505472" displayName="Table622911303243505472" ref="G26:G32" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="G26:G32" xr:uid="{38184B53-9AC0-4040-A722-2E96CF1AF113}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{07A6CCFD-27D1-4037-A71F-CA9C20324309}" name="Test case 2.2" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{225D049E-83FF-4740-A05C-CB48463CABD0}" name="Table12231012313344515573" displayName="Table12231012313344515573" ref="I26:I32" totalsRowShown="0">
+  <autoFilter ref="I26:I32" xr:uid="{225D049E-83FF-4740-A05C-CB48463CABD0}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8998872C-3F86-4211-8012-7442E83C1A05}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{0679B0A7-1222-47B3-9F97-F86A80EDA1D5}" name="Table622911303243505474" displayName="Table622911303243505474" ref="G34:G40" totalsRowShown="0" dataDxfId="37">
+  <autoFilter ref="G34:G40" xr:uid="{0679B0A7-1222-47B3-9F97-F86A80EDA1D5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1BB73799-1DB8-46EA-A593-6C4688DF3A7B}" name="Test case 2.2" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE3D3BDA-D024-4213-9CEC-74E4CFB47740}" name="Table122310" displayName="Table122310" ref="D2:D8" totalsRowShown="0">
+  <autoFilter ref="D2:D8" xr:uid="{EE3D3BDA-D024-4213-9CEC-74E4CFB47740}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A0432264-3A18-4E2F-9B6A-4248AA18FFDE}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="74" xr:uid="{746D23D2-66AB-4F6C-92DA-6DCC3F49B459}" name="Table12231012313344515575" displayName="Table12231012313344515575" ref="I34:I40" totalsRowShown="0">
+  <autoFilter ref="I34:I40" xr:uid="{746D23D2-66AB-4F6C-92DA-6DCC3F49B459}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{94A56FB9-6D09-496F-93D9-41D6836D75AC}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="75" xr:uid="{B1BD2666-2D09-4CFA-AF30-0B890BF4B9F9}" name="Table4699141372176" displayName="Table4699141372176" ref="L3:O8" totalsRowShown="0">
+  <autoFilter ref="L3:O8" xr:uid="{B1BD2666-2D09-4CFA-AF30-0B890BF4B9F9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6B8578EA-DE67-43C5-9EE5-A7C0CA179248}" name="Num of Iterations" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{7B1F38CC-64B0-4F8F-8751-D7851469ABF3}" name="Accuracy (%)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{23AC2931-78DD-4945-B3E7-12B213E6F65E}" name="Time taken (t) / s" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{6FD8D698-9E75-4521-AB97-FC3F092BD34A}" name="Performance (1/t)" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table72.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{7AC3C9C0-75AA-4C1A-9B95-AE033A1FC2CE}" name="Table469914137217678" displayName="Table469914137217678" ref="L11:O16" totalsRowShown="0">
+  <autoFilter ref="L11:O16" xr:uid="{7AC3C9C0-75AA-4C1A-9B95-AE033A1FC2CE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{85157BAC-C339-4BD1-AB91-28E2B1BCC491}" name="Num of Iterations" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{86320B24-E98E-465C-9CD4-5B936F911042}" name="Accuracy (%)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{BD462629-3986-4641-8212-9BE5863EC4B4}" name="Time taken (t) / s" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{2F276A0F-3AEB-4432-AB98-A5C89B323F88}" name="Performance (1/t)" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{AEDCC760-FC4E-4348-8B00-716B464CC4A0}" name="Table6229204128525620" displayName="Table6229204128525620" ref="B2:B8" totalsRowShown="0" dataDxfId="27">
+  <autoFilter ref="B2:B8" xr:uid="{AEDCC760-FC4E-4348-8B00-716B464CC4A0}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DC848837-E8D6-4D0C-B03B-2DD6D06D72D2}" name="Test case 2.1" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{62F7C35A-DD2F-4743-B90B-83DFFC949D22}" name="Table122310214229535732" displayName="Table122310214229535732" ref="D2:D8" totalsRowShown="0">
+  <autoFilter ref="D2:D8" xr:uid="{62F7C35A-DD2F-4743-B90B-83DFFC949D22}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{EF7ECA88-4B1F-4BAE-BB36-4A4AE7CDA8A0}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table75.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="76" xr:uid="{270A3C77-F1AC-4069-8B12-7FC22098B855}" name="Table62291130324350547077" displayName="Table62291130324350547077" ref="G2:G8" totalsRowShown="0" dataDxfId="25">
+  <autoFilter ref="G2:G8" xr:uid="{270A3C77-F1AC-4069-8B12-7FC22098B855}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{39968177-2E59-458C-B178-7975CD9AABC4}" name="Test case 2.2" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table76.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{5070F29D-1BD8-41F0-9CA0-022475CD3742}" name="Table1223101231334451557179" displayName="Table1223101231334451557179" ref="I2:I8" totalsRowShown="0">
+  <autoFilter ref="I2:I8" xr:uid="{5070F29D-1BD8-41F0-9CA0-022475CD3742}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5F385006-A7F1-40EC-8C25-42B09775CBCE}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table77.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="79" xr:uid="{8620B102-9731-457C-A164-FA6DD424EEC5}" name="Table622920412852562080" displayName="Table622920412852562080" ref="B10:B16" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="B10:B16" xr:uid="{8620B102-9731-457C-A164-FA6DD424EEC5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F0E681C5-503C-44B0-8431-32EA8E9BC073}" name="Test case 2.1" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table78.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="80" xr:uid="{F9324E5D-77DF-4E33-AA1B-3CA16194673E}" name="Table12231021422953573281" displayName="Table12231021422953573281" ref="D10:D16" totalsRowShown="0">
+  <autoFilter ref="D10:D16" xr:uid="{F9324E5D-77DF-4E33-AA1B-3CA16194673E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1C4A3603-886A-4A5F-9FDC-9C56CB509203}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table79.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{92D51055-EF34-42EA-9533-C50ED30D58A4}" name="Table622920412852562082" displayName="Table622920412852562082" ref="B18:B24" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B18:B24" xr:uid="{92D51055-EF34-42EA-9533-C50ED30D58A4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4AB589FD-59A5-4599-BDE7-C947F99C724D}" name="Test case 2.1" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1947B633-F957-4DAD-A833-AD320147A5F5}" name="Table622911" displayName="Table622911" ref="B10:B16" totalsRowShown="0" dataDxfId="109">
+  <autoFilter ref="B10:B16" xr:uid="{1947B633-F957-4DAD-A833-AD320147A5F5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{535505D7-16C0-4A70-BB5C-3259AFB9AC53}" name="Test case 1.2" dataDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table80.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{0917698C-C09B-4FCD-B86C-2BB272942F0D}" name="Table12231021422953573283" displayName="Table12231021422953573283" ref="D18:D24" totalsRowShown="0">
+  <autoFilter ref="D18:D24" xr:uid="{0917698C-C09B-4FCD-B86C-2BB272942F0D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{216D4ED8-A53D-4953-9B18-C0FBC69F6934}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table81.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{A20B3851-A8A5-4C28-9976-924733D8EB5D}" name="Table622920412852562084" displayName="Table622920412852562084" ref="B26:B32" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="B26:B32" xr:uid="{A20B3851-A8A5-4C28-9976-924733D8EB5D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4D6E32F5-5733-4AE4-AEF7-F2743B6FAC1C}" name="Test case 2.1" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table82.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{7345BE51-E6D7-401E-96DF-57EC12173FB2}" name="Table12231021422953573285" displayName="Table12231021422953573285" ref="D26:D32" totalsRowShown="0">
+  <autoFilter ref="D26:D32" xr:uid="{7345BE51-E6D7-401E-96DF-57EC12173FB2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{B8F72562-F4A6-4573-A600-9A1CFC37A335}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table83.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="85" xr:uid="{2D74EA7C-6E01-472B-9A5E-645DA812B2D4}" name="Table622920412852562086" displayName="Table622920412852562086" ref="B34:B40" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="B34:B40" xr:uid="{2D74EA7C-6E01-472B-9A5E-645DA812B2D4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9B7B73D3-D6C0-4721-AE94-76D13EA8AF70}" name="Test case 2.1" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table84.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="86" xr:uid="{19B018B8-BF53-441F-9EF9-1DAED3A8088A}" name="Table12231021422953573287" displayName="Table12231021422953573287" ref="D34:D40" totalsRowShown="0">
+  <autoFilter ref="D34:D40" xr:uid="{19B018B8-BF53-441F-9EF9-1DAED3A8088A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BE5FCAE2-B7B2-48D3-BE2C-E24C95A0AF6E}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table85.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="93" xr:uid="{370B60F2-3F28-4643-AE29-A74F475C5CB7}" name="Table6229113032435054707794" displayName="Table6229113032435054707794" ref="G10:G16" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="G10:G16" xr:uid="{370B60F2-3F28-4643-AE29-A74F475C5CB7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A911A4A1-D167-4274-B323-AC0D13E07F43}" name="Test case 2.2" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table86.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="94" xr:uid="{64722CF1-3818-4FD3-97D9-3121F036004D}" name="Table122310123133445155717995" displayName="Table122310123133445155717995" ref="I10:I16" totalsRowShown="0">
+  <autoFilter ref="I10:I16" xr:uid="{64722CF1-3818-4FD3-97D9-3121F036004D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9E148A8A-0C37-4DF2-9D94-8236E09328E5}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table87.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="95" xr:uid="{B9733414-69AA-41C9-B903-16D000DD6CAC}" name="Table6229113032435054707796" displayName="Table6229113032435054707796" ref="G18:G24" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="G18:G24" xr:uid="{B9733414-69AA-41C9-B903-16D000DD6CAC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F782BC65-46C9-4858-B754-D7B5988566A5}" name="Test case 2.2" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table88.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="96" xr:uid="{79F5FF79-3FF1-4194-B8F1-14B37F1331A9}" name="Table122310123133445155717997" displayName="Table122310123133445155717997" ref="I18:I24" totalsRowShown="0">
+  <autoFilter ref="I18:I24" xr:uid="{79F5FF79-3FF1-4194-B8F1-14B37F1331A9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C1A405DA-4942-4347-BE54-5D7E9A4E2D94}" name="Results "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table89.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="97" xr:uid="{7C27963E-F323-4E0C-A61C-B3B70D3EB2A4}" name="Table6229113032435054707798" displayName="Table6229113032435054707798" ref="G26:G32" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="G26:G32" xr:uid="{7C27963E-F323-4E0C-A61C-B3B70D3EB2A4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{775E8C8D-28BD-476F-8163-AF20829DB9DD}" name="Test case 2.2" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{19A54131-962B-475F-8FB5-2B1BC0074D09}" name="Table12231012" displayName="Table12231012" ref="D10:D16" totalsRowShown="0">
   <autoFilter ref="D10:D16" xr:uid="{19A54131-962B-475F-8FB5-2B1BC0074D09}"/>
   <tableColumns count="1">
@@ -2811,482 +5656,59 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{57CE867F-BD79-48FD-80A8-42CA7A0230C3}" name="Table622913" displayName="Table622913" ref="B18:B24" totalsRowShown="0" dataDxfId="41">
-  <autoFilter ref="B18:B24" xr:uid="{57CE867F-BD79-48FD-80A8-42CA7A0230C3}"/>
+<file path=xl/tables/table90.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="98" xr:uid="{86C558C1-8568-4584-BE1C-18F3908BDBEC}" name="Table122310123133445155717999" displayName="Table122310123133445155717999" ref="I26:I32" totalsRowShown="0">
+  <autoFilter ref="I26:I32" xr:uid="{86C558C1-8568-4584-BE1C-18F3908BDBEC}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A7DDED82-F68A-4658-9768-0CE664D3736F}" name="Test case 1.3" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{292B0D79-025A-4E00-8391-AE5639CD58DF}" name="Results "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9E970B3B-CE6C-4E21-AFBD-91A557F65299}" name="Table12231014" displayName="Table12231014" ref="D18:D24" totalsRowShown="0">
-  <autoFilter ref="D18:D24" xr:uid="{9E970B3B-CE6C-4E21-AFBD-91A557F65299}"/>
+<file path=xl/tables/table91.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{2B449905-DDC8-453C-A5FB-068E9AD6FEC2}" name="Table62291130324350547077100" displayName="Table62291130324350547077100" ref="G34:G40" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="G34:G40" xr:uid="{2B449905-DDC8-453C-A5FB-068E9AD6FEC2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7E58B478-DCA7-4D7A-B1B7-1866C6F4EBD8}" name="Results "/>
+    <tableColumn id="1" xr3:uid="{8D243575-5B0E-48DF-8D23-49C48FF43140}" name="Test case 2.2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E756CF2-AC2B-4BDA-9EBA-3C81E426DF5A}" name="Table622915" displayName="Table622915" ref="B26:B32" totalsRowShown="0" dataDxfId="39">
-  <autoFilter ref="B26:B32" xr:uid="{6E756CF2-AC2B-4BDA-9EBA-3C81E426DF5A}"/>
+<file path=xl/tables/table92.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="100" xr:uid="{C0DF3742-AA6B-4429-A122-6DD157C033D4}" name="Table1223101231334451557179101" displayName="Table1223101231334451557179101" ref="I34:I40" totalsRowShown="0">
+  <autoFilter ref="I34:I40" xr:uid="{C0DF3742-AA6B-4429-A122-6DD157C033D4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CBC103F7-B09B-42E6-9B02-382FA07457FD}" name="Test case 1.4" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{DE4D1559-D988-4709-959A-8D05D1884097}" name="Results "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9856DCAD-16D7-4AF1-83AE-D3710D2B52A3}" name="Table12231016" displayName="Table12231016" ref="D26:D32" totalsRowShown="0">
-  <autoFilter ref="D26:D32" xr:uid="{9856DCAD-16D7-4AF1-83AE-D3710D2B52A3}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BDFBFD3E-EB22-4348-8BF2-37C465267CE7}" name="Results "/>
+<file path=xl/tables/table93.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="101" xr:uid="{BBA0D2C7-A9B0-4598-B5A3-2DB2DD090D7F}" name="Table4699141372176102" displayName="Table4699141372176102" ref="L3:O8" totalsRowShown="0">
+  <autoFilter ref="L3:O8" xr:uid="{BBA0D2C7-A9B0-4598-B5A3-2DB2DD090D7F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{146CA5B9-18B3-4C37-B9F4-259C91FE7182}" name="Regularization" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E438CF19-457C-47F5-B8BD-EF5728C7423B}" name="Accuracy (%)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C55417BF-2005-4D49-BB8E-EDB51C952DF2}" name="Time taken (t) / s" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4657BC74-81C2-4D90-957B-4D12E10CEC15}" name="Performance (1/t)" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{65353F47-102B-4078-8B0D-154ED492A205}" name="Table4699141" displayName="Table4699141" ref="G3:J7" totalsRowShown="0">
-  <autoFilter ref="G3:J7" xr:uid="{65353F47-102B-4078-8B0D-154ED492A205}"/>
+<file path=xl/tables/table94.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="102" xr:uid="{1FD83134-0601-4AC9-AD53-860C252411BF}" name="Table469914137217678103" displayName="Table469914137217678103" ref="L11:O16" totalsRowShown="0">
+  <autoFilter ref="L11:O16" xr:uid="{1FD83134-0601-4AC9-AD53-860C252411BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{88DDEBCF-6C85-4D77-8A4C-3BB5055C3731}" name="Activation" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C1285D9F-986A-4CFD-9DC5-4194B556C6AF}" name="Accuracy (%)"/>
-    <tableColumn id="3" xr3:uid="{7A911EAF-9278-4C3F-A5CF-A0F730BFAF64}" name="Time taken (t) / s"/>
-    <tableColumn id="5" xr3:uid="{C17D5DC1-6CE3-4F37-955F-4776A9773FEA}" name="Performance (1/t)" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D7ED44A4-6505-4548-A53B-9139E13BFB86}" name="Regularization" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{947DDC8F-6A59-4E1A-A388-E796ED6CEC79}" name="Accuracy (%)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4848E4B5-FA9D-45D2-8BF4-422F1B3B296A}" name="Time taken (t) / s" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4F08D1FB-6F5C-4A08-A38A-0B2014395883}" name="Performance (1/t)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{12029E7F-9AE2-4C27-B258-5AABE327B4C0}" name="Table62292024" displayName="Table62292024" ref="B10:B16" totalsRowShown="0" dataDxfId="35">
-  <autoFilter ref="B10:B16" xr:uid="{12029E7F-9AE2-4C27-B258-5AABE327B4C0}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8A4DB93C-CDF7-44E1-BAED-E7479F0F0166}" name="Test case 2.1" dataDxfId="34"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{FD394EBB-5A07-439C-847B-F3A0AE0DAE01}" name="Table1223102125" displayName="Table1223102125" ref="D10:D16" totalsRowShown="0">
-  <autoFilter ref="D10:D16" xr:uid="{FD394EBB-5A07-439C-847B-F3A0AE0DAE01}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5DC337FF-3442-468F-9BA9-5CDD8560DBD6}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{DDCDCED9-0E50-4C0C-A03F-5BA214FF1304}" name="Table62292026" displayName="Table62292026" ref="B18:B24" totalsRowShown="0" dataDxfId="33">
-  <autoFilter ref="B18:B24" xr:uid="{DDCDCED9-0E50-4C0C-A03F-5BA214FF1304}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E5536EB9-9117-4999-A205-A5AB92D78784}" name="Test case 2.1" dataDxfId="32"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F0ECC6A2-EE97-4147-B0FE-05AD65179CFF}" name="Table2" displayName="Table2" ref="B10:B13" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="B10:B13" xr:uid="{F0ECC6A2-EE97-4147-B0FE-05AD65179CFF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C9FD93A8-7F4D-4E93-9B91-4339541C100B}" name="2.Solver" dataDxfId="57"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{62971C1F-5CD3-413B-ABAE-9A9A206F2459}" name="Table1223102127" displayName="Table1223102127" ref="D18:D24" totalsRowShown="0">
-  <autoFilter ref="D18:D24" xr:uid="{62971C1F-5CD3-413B-ABAE-9A9A206F2459}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A6CCA3E3-6D03-44DE-8BDC-27D1EE8B6738}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{1E72F966-0555-437F-8A22-333EE1970D75}" name="Table62291130" displayName="Table62291130" ref="G2:G8" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="G2:G8" xr:uid="{1E72F966-0555-437F-8A22-333EE1970D75}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DE1EF4FC-903F-48F1-AD0C-4EAE7317A844}" name="Test case 2.2" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{91A43CDA-9E42-4AB8-B807-5EC04A46B608}" name="Table1223101231" displayName="Table1223101231" ref="I2:I8" totalsRowShown="0">
-  <autoFilter ref="I2:I8" xr:uid="{91A43CDA-9E42-4AB8-B807-5EC04A46B608}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7A0FB313-0EBE-4417-80C5-5D033FF5B9FF}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{50D3013A-00B4-4F21-B6F9-3773FBA6129B}" name="Table6229113034" displayName="Table6229113034" ref="G18:G24" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="G18:G24" xr:uid="{50D3013A-00B4-4F21-B6F9-3773FBA6129B}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FB2FB59D-9A16-448C-AB1C-E30699839FAE}" name="Test case 2.2" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{CFE58A83-CC3C-491C-B729-F75F080D6471}" name="Table122310123135" displayName="Table122310123135" ref="I18:I24" totalsRowShown="0">
-  <autoFilter ref="I18:I24" xr:uid="{CFE58A83-CC3C-491C-B729-F75F080D6471}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7E0D1A3B-1B26-4ECB-AF0A-E901185BA722}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{94DF32EA-9983-4BAB-B218-C8639B593B03}" name="Table46991413739" displayName="Table46991413739" ref="L9:O12" totalsRowShown="0">
-  <autoFilter ref="L9:O12" xr:uid="{94DF32EA-9983-4BAB-B218-C8639B593B03}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CEC2511C-C612-4FBF-9EA3-736F19FA1B92}" name="Solver" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{2D2368F8-6E40-4D87-9493-B5C467D80B98}" name="Accuracy (%)"/>
-    <tableColumn id="3" xr3:uid="{773D3862-8A98-407C-B21F-D696CBCEE18E}" name="Time taken (t) / s"/>
-    <tableColumn id="5" xr3:uid="{3DB8FF20-7099-4637-8DBB-216A34E9EDC6}" name="Performance (1/t)" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00EA19B6-DB7F-4F27-8407-172227A6A6FE}" name="Table469914137" displayName="Table469914137" ref="L3:O6" totalsRowShown="0">
-  <autoFilter ref="L3:O6" xr:uid="{00EA19B6-DB7F-4F27-8407-172227A6A6FE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22ECD6B1-85AA-4524-B5A0-3F2EAB6C66A3}" name="Solver" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{E9090169-6CDA-4089-B1E5-393D485FA74A}" name="Accuracy (%)"/>
-    <tableColumn id="3" xr3:uid="{CF0DAF80-2106-48C4-AACD-A9AAE4892BC8}" name="Time taken (t) / s"/>
-    <tableColumn id="5" xr3:uid="{2E0EA27B-58E4-4DD1-950E-D6310C31A4C0}" name="Performance (1/t)" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{BBB23E93-2087-4697-97D3-045860F808A7}" name="Table622960" displayName="Table622960" ref="B2:B8" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="B2:B8" xr:uid="{BBB23E93-2087-4697-97D3-045860F808A7}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{20DBDD6D-A7F3-4AFB-A214-E27391F1163E}" name="Test case 1.1" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{5EECF758-C0D2-43FD-8809-C8F30A6F247D}" name="Table12231061" displayName="Table12231061" ref="D2:D8" totalsRowShown="0">
-  <autoFilter ref="D2:D8" xr:uid="{5EECF758-C0D2-43FD-8809-C8F30A6F247D}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{32C56AF0-8D49-4793-A774-1380F1F99060}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{75BEB5A3-2CEA-4C5B-8353-A5409C247563}" name="Table62291162" displayName="Table62291162" ref="G10:G16" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="G10:G16" xr:uid="{75BEB5A3-2CEA-4C5B-8353-A5409C247563}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9C21747C-7421-48B3-BD0C-55581E225C5E}" name="Test case 1.2" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8B164D0-2279-484A-949B-DF2EECFEFC2C}" name="Table3" displayName="Table3" ref="B15:B19" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="B15:B19" xr:uid="{B8B164D0-2279-484A-949B-DF2EECFEFC2C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C2B458CB-B504-4A93-A67B-8A204417F0EC}" name="3.Neurons  &amp; Hidden layers" dataDxfId="54"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{8D1D6551-1F17-4FCA-8E64-8CAED7DF5447}" name="Table1223101263" displayName="Table1223101263" ref="I10:I16" totalsRowShown="0">
-  <autoFilter ref="I10:I16" xr:uid="{8D1D6551-1F17-4FCA-8E64-8CAED7DF5447}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{81091DA8-6E43-4823-9C3F-28E29CD04B7E}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{349492E5-4966-4291-B675-869AF528D493}" name="Table62292041" displayName="Table62292041" ref="B2:B8" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="B2:B8" xr:uid="{349492E5-4966-4291-B675-869AF528D493}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F7AEF10B-6DEA-48EC-8F93-1317663B725C}" name="Test case 2.1" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{FC11BEEB-D3F6-4480-BC24-400D5DF2BB78}" name="Table1223102142" displayName="Table1223102142" ref="D2:D8" totalsRowShown="0">
-  <autoFilter ref="D2:D8" xr:uid="{FC11BEEB-D3F6-4480-BC24-400D5DF2BB78}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D7A3726B-1C89-4DA7-8F9F-4F152F9A26F6}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{E5AB1440-6D73-4DA8-9EA0-507CB0581808}" name="Table622911303243" displayName="Table622911303243" ref="G2:G8" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="G2:G8" xr:uid="{E5AB1440-6D73-4DA8-9EA0-507CB0581808}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CC1011C6-3A17-419F-AA7C-B3AEA1EB08C8}" name="Test case 2.2" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{8FD8BC0E-B781-4956-BD59-FB572367470D}" name="Table12231012313344" displayName="Table12231012313344" ref="I2:I8" totalsRowShown="0">
-  <autoFilter ref="I2:I8" xr:uid="{8FD8BC0E-B781-4956-BD59-FB572367470D}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D774F245-F27B-473D-BAF6-15DFF81073D9}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{756ABB9C-58DB-41CA-81F9-8857CE47CCA1}" name="Table6229204117" displayName="Table6229204117" ref="B10:B16" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B10:B16" xr:uid="{756ABB9C-58DB-41CA-81F9-8857CE47CCA1}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EB345FBF-C8F2-40D0-BB13-380F3A1C6B50}" name="Test case 2.1" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{20F38536-ED5B-43F9-8318-88D93B650254}" name="Table122310214218" displayName="Table122310214218" ref="D10:D16" totalsRowShown="0">
-  <autoFilter ref="D10:D16" xr:uid="{20F38536-ED5B-43F9-8318-88D93B650254}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA61FA30-1CA8-4A15-AEB6-FF5ECFE1E736}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{AD4F5263-CBA9-4240-B8E4-55A47992732C}" name="Table62291130324322" displayName="Table62291130324322" ref="G10:G16" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="G10:G16" xr:uid="{AD4F5263-CBA9-4240-B8E4-55A47992732C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4B2E7233-CDEC-413B-AA88-62671CAC1E99}" name="Test case 2.2" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{CF312E08-9D5B-4C8D-BB60-1023944FAFB4}" name="Table1223101231334423" displayName="Table1223101231334423" ref="I10:I16" totalsRowShown="0">
-  <autoFilter ref="I10:I16" xr:uid="{CF312E08-9D5B-4C8D-BB60-1023944FAFB4}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{46D7EA75-7975-42F7-9762-39CB0563B7D1}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{5AAE64CD-0135-492A-B04E-17C652FDFC75}" name="Table6229204128" displayName="Table6229204128" ref="B18:B24" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="B18:B24" xr:uid="{5AAE64CD-0135-492A-B04E-17C652FDFC75}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7FFB005E-7DF5-44FE-8913-DFE8B23EAA62}" name="Test case 2.1" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A05E8201-E031-48E8-BF32-BC20D5816F94}" name="Table4" displayName="Table4" ref="B21:B22" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="B21:B22" xr:uid="{A05E8201-E031-48E8-BF32-BC20D5816F94}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{042D4DB7-FBD3-4F62-8796-1DB36D0E050C}" name="4.Regularization" dataDxfId="51"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{4F873F71-E7FE-4C1A-9D85-94CBC282AC9C}" name="Table122310214229" displayName="Table122310214229" ref="D18:D24" totalsRowShown="0">
-  <autoFilter ref="D18:D24" xr:uid="{4F873F71-E7FE-4C1A-9D85-94CBC282AC9C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3A5C7966-CDD2-4DA6-8027-F9ADD75CB50B}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{A55F340D-AD28-4FBB-A363-A665F98CEB07}" name="Table62291130324336" displayName="Table62291130324336" ref="G18:G24" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="G18:G24" xr:uid="{A55F340D-AD28-4FBB-A363-A665F98CEB07}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E7861316-8ACA-4E9D-AA69-E0ADAA844ED5}" name="Test case 2.2" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{4F49BD93-750C-4EEF-AB8E-902EC0D1100B}" name="Table1223101231334438" displayName="Table1223101231334438" ref="I18:I24" totalsRowShown="0">
-  <autoFilter ref="I18:I24" xr:uid="{4F49BD93-750C-4EEF-AB8E-902EC0D1100B}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C7C1E128-DA71-4F8E-9431-A1F9F7AD4206}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{076D2C1E-84FA-45D8-9C6D-468C701355FD}" name="Table6229204140" displayName="Table6229204140" ref="B26:B32" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="B26:B32" xr:uid="{076D2C1E-84FA-45D8-9C6D-468C701355FD}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9ECA9510-428B-48CE-AD1D-17AEA8356EBC}" name="Test case 2.1" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{EFF15FDC-08FD-4056-9DD6-80DA5A7B87E5}" name="Table122310214245" displayName="Table122310214245" ref="D26:D32" totalsRowShown="0">
-  <autoFilter ref="D26:D32" xr:uid="{EFF15FDC-08FD-4056-9DD6-80DA5A7B87E5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A75F69EB-3CB7-4521-B5C0-0F353282F88B}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{055CB891-0495-4814-B760-DA492D056BBF}" name="Table62291130324346" displayName="Table62291130324346" ref="G26:G32" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="G26:G32" xr:uid="{055CB891-0495-4814-B760-DA492D056BBF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9FB49867-8F64-41B2-8350-FDD9202E3646}" name="Test case 2.2" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{57AF71E7-46CE-4DFC-8E62-86B46977652E}" name="Table1223101231334447" displayName="Table1223101231334447" ref="I26:I32" totalsRowShown="0">
-  <autoFilter ref="I26:I32" xr:uid="{57AF71E7-46CE-4DFC-8E62-86B46977652E}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3101FF01-A355-4D9C-A94F-F25ED8EA90DE}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{25F8D4FA-5B8C-4E66-8D9D-409DDB95CD22}" name="Table6229204148" displayName="Table6229204148" ref="B34:B40" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="B34:B40" xr:uid="{25F8D4FA-5B8C-4E66-8D9D-409DDB95CD22}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{01F98ECA-7E40-41F6-A075-EF01477C4637}" name="Test case 2.1" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{BC89A42D-738C-4EE2-B476-13AF9A5DB232}" name="Table122310214249" displayName="Table122310214249" ref="D34:D40" totalsRowShown="0">
-  <autoFilter ref="D34:D40" xr:uid="{BC89A42D-738C-4EE2-B476-13AF9A5DB232}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A3019AB6-65E4-4952-9765-9F0F4D74E88B}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{0C32E5A6-0685-41D1-8FF9-B0D1901F1125}" name="Table62291130324350" displayName="Table62291130324350" ref="G34:G40" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="G34:G40" xr:uid="{0C32E5A6-0685-41D1-8FF9-B0D1901F1125}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{896974EB-7889-4FD3-A9E8-037884045BC2}" name="Test case 2.2" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A411BF91-C0F0-46FB-BA5B-37F8D57C849D}" name="Table5" displayName="Table5" ref="B24:B25" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="B24:B25" xr:uid="{A411BF91-C0F0-46FB-BA5B-37F8D57C849D}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C1AB7A03-F5F4-4938-AEF4-DA249FBF68E7}" name="5.Num of Iterations" dataDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{2802FF54-E03A-4F6B-9280-7BDEC7CF9664}" name="Table1223101231334451" displayName="Table1223101231334451" ref="I34:I40" totalsRowShown="0">
-  <autoFilter ref="I34:I40" xr:uid="{2802FF54-E03A-4F6B-9280-7BDEC7CF9664}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{654DB4EC-7614-418F-B436-78AAF95E1CDD}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4680391-4802-4D70-BC64-FA8AA1BF5697}" name="Table622" displayName="Table622" ref="D4:D10" totalsRowShown="0" dataDxfId="47">
-  <autoFilter ref="D4:D10" xr:uid="{C4680391-4802-4D70-BC64-FA8AA1BF5697}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{467AEE1C-3E45-461C-9FF9-4FD33AD2FF62}" name="Test case 1.0" dataDxfId="46"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F72190CD-8EF4-4C7F-AF96-0287851E214F}" name="Table1223" displayName="Table1223" ref="F4:F10" totalsRowShown="0">
-  <autoFilter ref="F4:F10" xr:uid="{F72190CD-8EF4-4C7F-AF96-0287851E214F}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8E35760A-248E-4121-95A2-5D61F8F6C223}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{91761294-FFA5-48B3-9182-954FA54708A5}" name="Table6229" displayName="Table6229" ref="B2:B8" totalsRowShown="0" dataDxfId="45">
-  <autoFilter ref="B2:B8" xr:uid="{91761294-FFA5-48B3-9182-954FA54708A5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3565CC02-D872-4D56-848B-D91800188008}" name="Test case 1.1" dataDxfId="44"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE3D3BDA-D024-4213-9CEC-74E4CFB47740}" name="Table122310" displayName="Table122310" ref="D2:D8" totalsRowShown="0">
-  <autoFilter ref="D2:D8" xr:uid="{EE3D3BDA-D024-4213-9CEC-74E4CFB47740}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A0432264-3A18-4E2F-9B6A-4248AA18FFDE}" name="Results "/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3554,10 +5976,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,116 +5988,68 @@
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3721,14 +6095,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3738,8 +6110,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,90 +6127,90 @@
   <sheetData>
     <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6">
         <v>37265.299104791004</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>193.04222104190299</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>83</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>5.4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>108.560901688006</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>62</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
         <v>1.0109983638101601</v>
@@ -3858,10 +6230,10 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6">
         <v>0.83847158753477002</v>
@@ -3881,33 +6253,33 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7">
         <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="12"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6">
         <v>86696.612547564102</v>
@@ -3915,10 +6287,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6">
         <v>294.44288503471103</v>
@@ -3926,10 +6298,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6">
         <v>155.37449790352201</v>
@@ -3937,10 +6309,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <v>1.0706501081608799</v>
@@ -3948,10 +6320,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6">
         <v>0.624208941633833</v>
@@ -3959,171 +6331,171 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="7">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8">
         <v>230959.21920298299</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="10">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
         <v>480.58216696313502</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8">
         <v>254.406755761601</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="10">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
         <v>3.1025160792495101</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="10">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8">
         <v>-1.10496677244142E-3</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="10">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
         <v>230959.21745037101</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="10">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8">
         <v>480.58216513971001</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8">
         <v>254.40675325742799</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="10">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
         <v>3.10251605545501</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="10">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8">
         <v>-1.104959175654E-3</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
         <v>2.5</v>
       </c>
     </row>
@@ -4223,7 +6595,7 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="L11" sqref="L11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,474 +6612,474 @@
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6">
         <v>37265.299104791004</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>86696.612547564102</v>
+      </c>
       <c r="L3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>193.04222104190299</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="L4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>294.44288503471103</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="15">
-        <v>99</v>
-      </c>
-      <c r="N4" s="15">
-        <v>6.6</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.15</v>
+      <c r="M4" s="13">
+        <v>83</v>
+      </c>
+      <c r="N4" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>108.560901688006</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>155.37449790352201</v>
+      </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
       <c r="M5">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N5">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="O5">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
         <v>1.0109983638101601</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.0706501081608799</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="10">
-        <v>-1.39965213387135E+79</v>
-      </c>
-      <c r="N6">
-        <v>2.7</v>
-      </c>
-      <c r="O6">
-        <v>0.37</v>
-      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6">
         <v>0.83847158753477002</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.624208941633833</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7">
         <v>5.4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="L8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>42</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="10"/>
       <c r="L10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="N10">
-        <v>6.3</v>
+        <v>9.4</v>
       </c>
       <c r="O10">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8">
         <v>70621.593801966097</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="6">
-        <v>86696.612547564102</v>
-      </c>
-      <c r="L11" s="14" t="s">
+        <v>72855.391341831593</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="15">
-        <v>90</v>
-      </c>
-      <c r="N11" s="15">
-        <v>8.5</v>
-      </c>
-      <c r="O11" s="16">
+      <c r="M11" s="13">
+        <v>68</v>
+      </c>
+      <c r="N11" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="O11" s="14">
         <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
         <v>265.74723667794899</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="6">
-        <v>294.44288503471103</v>
+        <v>269.91737873251401</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8">
         <v>127.162969929095</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6">
-        <v>155.37449790352201</v>
+        <v>131.48857950533599</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.81288187322746197</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="6">
-        <v>1.0706501081608799</v>
+        <v>0.84418005014698905</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.69388696168738595</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="6">
-        <v>0.624208941633833</v>
+        <v>0.68420444795339996</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
         <v>8.5</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="7">
-        <v>4.9000000000000004</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="E19" s="16"/>
       <c r="G19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="G21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="G22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="G24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="J24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4805,602 +7177,958 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991663C-4DA7-4038-9688-428A7865C804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991663C-4DA7-4038-9688-428A7865C804}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="L2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8">
+        <v>187733.83872856401</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>296429.33569269499</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>433.28263146422597</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>544.45324472602294</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>18</v>
+      </c>
+      <c r="O4" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>216.36489309970301</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>291.54131214381499</v>
+      </c>
+      <c r="L5" s="18">
+        <v>4</v>
+      </c>
+      <c r="M5" s="18">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19">
+        <v>69</v>
+      </c>
+      <c r="O5" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.1564590160705199</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.23622936522279</v>
+      </c>
+      <c r="L6" s="20">
+        <v>6</v>
+      </c>
+      <c r="M6" s="21">
+        <v>6</v>
+      </c>
+      <c r="N6" s="13">
+        <v>90</v>
+      </c>
+      <c r="O6" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.18625773402339699</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-0.28488865386318102</v>
+      </c>
+      <c r="L7" s="18">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <v>8</v>
+      </c>
+      <c r="N7" s="19">
+        <v>82</v>
+      </c>
+      <c r="O7" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="L8" s="18">
+        <v>10</v>
+      </c>
+      <c r="M8" s="18">
+        <v>10</v>
+      </c>
+      <c r="N8" s="19">
+        <v>83</v>
+      </c>
+      <c r="O8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E11" s="8">
+        <v>70424.896610355296</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="J11" s="8">
+        <v>89860.245428528899</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E12" s="8">
+        <v>265.37689539663199</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="J12" s="8">
+        <v>299.76698522106898</v>
+      </c>
+      <c r="L12" s="18">
+        <v>2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19">
+        <v>-28</v>
+      </c>
+      <c r="O12" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E13" s="8">
+        <v>142.92883784324599</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J13" s="8">
+        <v>159.452585213048</v>
+      </c>
+      <c r="L13" s="18">
+        <v>4</v>
+      </c>
+      <c r="M13" s="18">
+        <v>4</v>
+      </c>
+      <c r="N13" s="19">
+        <v>61</v>
+      </c>
+      <c r="O13" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="E14" s="8">
+        <v>1.5350971616373099</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="J14" s="8">
+        <v>1.0398357484298799</v>
+      </c>
+      <c r="L14" s="18">
+        <v>6</v>
+      </c>
+      <c r="M14" s="18">
+        <v>6</v>
+      </c>
+      <c r="N14" s="19">
+        <v>68</v>
+      </c>
+      <c r="O14" s="19">
+        <v>13.2</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E15" s="8">
+        <v>0.69473955608111104</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="J15" s="8">
+        <v>0.61049600737163801</v>
+      </c>
+      <c r="L15" s="18">
+        <v>8</v>
+      </c>
+      <c r="M15" s="18">
+        <v>8</v>
+      </c>
+      <c r="N15" s="19">
+        <v>68</v>
+      </c>
+      <c r="O15" s="19">
+        <v>16.2</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="G7" s="5" t="s">
+      <c r="E16" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="G12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="G13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="G14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="G15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="G16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11"/>
+      <c r="J16" s="9">
+        <v>10.7</v>
+      </c>
+      <c r="L16" s="20">
+        <v>10</v>
+      </c>
+      <c r="M16" s="21">
+        <v>10</v>
+      </c>
+      <c r="N16" s="13">
+        <v>68</v>
+      </c>
+      <c r="O16" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="E19" s="6">
+        <v>22720.098564199201</v>
+      </c>
       <c r="G19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>74183.161710740897</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>150.73187640376199</v>
+      </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="J20" s="8">
+        <v>272.36586003157697</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <v>96.175815947824901</v>
+      </c>
       <c r="G21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="J21" s="8">
+        <v>130.79021716758399</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.0478791663615901</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.84825249400612601</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.90151852956261802</v>
+      </c>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.67844915697330699</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="G24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="J24" s="9">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
+        <v>39542.7693648317</v>
+      </c>
       <c r="G27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="J27" s="8">
+        <v>73768.862304371898</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E28" s="8">
+        <v>198.853638047765</v>
+      </c>
       <c r="G28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="J28" s="8">
+        <v>271.60423837704002</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="8">
+        <v>113.812035069014</v>
+      </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="J29" s="8">
+        <v>130.65311319131399</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1.01540300506558</v>
+      </c>
       <c r="G30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.83640135158625795</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.82859977208236502</v>
+      </c>
       <c r="G31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.680244959690679</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>11.2</v>
+      </c>
       <c r="G32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="J32" s="9">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10">
-        <v>869862.67082080198</v>
+        <v>19</v>
+      </c>
+      <c r="E35" s="8">
+        <v>37265.299104791004</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="10">
-        <v>13682666.4434209</v>
+        <v>19</v>
+      </c>
+      <c r="J35" s="6">
+        <v>72855.391341831593</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="10">
-        <v>932.66428623637205</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="8">
+        <v>193.04222104190299</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="10">
-        <v>3699.0088460857901</v>
+        <v>20</v>
+      </c>
+      <c r="J36" s="6">
+        <v>269.91737873251401</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="10">
-        <v>653.52545725307198</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="8">
+        <v>108.560901688006</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="10">
-        <v>2794.8806467335698</v>
+        <v>21</v>
+      </c>
+      <c r="J37" s="6">
+        <v>131.48857950533599</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.15560636672004</v>
+        <v>22</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1.0109983638101601</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0.71893044797960004</v>
+        <v>22</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.84418005014698905</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.99323166279848996</v>
+        <v>23</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.83847158753477002</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0.89353618288106196</v>
+        <v>23</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.68420444795339996</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="11">
-        <v>6.6</v>
+        <v>24</v>
+      </c>
+      <c r="E40" s="9">
+        <v>5.4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="11">
-        <v>8.5</v>
+        <v>24</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="20">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateAverage">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProcessData">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateReciprocals">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="22">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
@@ -5417,32 +8145,1897 @@
     <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BA53DE-8498-4112-9F56-A3D642FEFAD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BA53DE-8498-4112-9F56-A3D642FEFAD5}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:O14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8">
+        <v>22720.098564199201</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>72855.391341831593</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>150.73187640376199</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>269.91737873251401</v>
+      </c>
+      <c r="L4" s="18">
+        <v>100</v>
+      </c>
+      <c r="M4" s="19">
+        <v>90</v>
+      </c>
+      <c r="N4" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>96.175815947824901</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>131.48857950533599</v>
+      </c>
+      <c r="L5" s="21">
+        <v>200</v>
+      </c>
+      <c r="M5" s="13">
+        <v>92</v>
+      </c>
+      <c r="N5" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.0478791663615901</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+      <c r="L6" s="18">
+        <v>300</v>
+      </c>
+      <c r="M6" s="19">
+        <v>93</v>
+      </c>
+      <c r="N6" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.90151852956261802</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+      <c r="L7" s="18">
+        <v>400</v>
+      </c>
+      <c r="M7" s="19">
+        <v>93</v>
+      </c>
+      <c r="N7" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>500</v>
+      </c>
+      <c r="M8" s="19">
+        <v>94</v>
+      </c>
+      <c r="N8" s="19">
+        <v>24</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8">
+        <v>19583.900912211</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="8">
+        <v>72855.391341831593</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>139.94249144634699</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8">
+        <v>269.91737873251401</v>
+      </c>
+      <c r="L12" s="18">
+        <v>100</v>
+      </c>
+      <c r="M12" s="19">
+        <v>90</v>
+      </c>
+      <c r="N12" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8">
+        <v>83.321291837080196</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>131.48857950533599</v>
+      </c>
+      <c r="L13" s="18">
+        <v>200</v>
+      </c>
+      <c r="M13" s="19">
+        <v>92</v>
+      </c>
+      <c r="N13" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.89168370856048795</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+      <c r="L14" s="21">
+        <v>300</v>
+      </c>
+      <c r="M14" s="13">
+        <v>93</v>
+      </c>
+      <c r="N14" s="14">
+        <v>18.8</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.91511254437189904</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+      <c r="L15" s="18">
+        <v>400</v>
+      </c>
+      <c r="M15" s="19">
+        <v>93</v>
+      </c>
+      <c r="N15" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="L16" s="18">
+        <v>500</v>
+      </c>
+      <c r="M16" s="19">
+        <v>94</v>
+      </c>
+      <c r="N16" s="19">
+        <v>24</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8">
+        <v>16114.554579728499</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>72855.391341831593</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
+        <v>126.943115527107</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8">
+        <v>269.91737873251401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8">
+        <v>75.558446946623206</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="8">
+        <v>131.48857950533599</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.81100490575712403</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.93015060977967001</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="9">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
+        <v>15187.0356156903</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="8">
+        <v>72855.391341831593</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8">
+        <v>123.23569132231999</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8">
+        <v>269.91737873251401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8">
+        <v>71.911977338384204</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="8">
+        <v>131.48857950533599</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.78430534949711805</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.93417098984883795</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="8">
+        <v>14132.650425841201</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="8">
+        <v>72855.391341831593</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8">
+        <v>118.880824466527</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8">
+        <v>269.91737873251401</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="8">
+        <v>67.908887160602802</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="8">
+        <v>131.48857950533599</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.77229798914261005</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.93874127829236398</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="9">
+        <v>24</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="9">
+        <v>16.7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateAverage">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5122" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProcessData">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5123" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateReciprocals">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="22">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FEBBBB-B506-49ED-BF4B-E87B3B44345E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FEBBBB-B506-49ED-BF4B-E87B3B44345E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8">
+        <v>19583.900912211</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>72855.391341831593</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>139.94249144634699</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>269.91737873251401</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>92</v>
+      </c>
+      <c r="N4" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8">
+        <v>83.321291837080196</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>131.48857950533599</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19">
+        <v>90</v>
+      </c>
+      <c r="N5" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.89168370856048795</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.84418005014698905</v>
+      </c>
+      <c r="L6" s="21">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13">
+        <v>91</v>
+      </c>
+      <c r="N6" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.91511254437189904</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.68420444795339996</v>
+      </c>
+      <c r="L7" s="18">
+        <v>100</v>
+      </c>
+      <c r="M7" s="19">
+        <v>88</v>
+      </c>
+      <c r="N7" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="19">
+        <v>91</v>
+      </c>
+      <c r="N8" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22940.682722097401</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="8">
+        <v>72855.395283222897</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>151.461819354243</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8">
+        <v>269.91738603362103</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>68</v>
+      </c>
+      <c r="N12" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8">
+        <v>85.102877471075601</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>131.488569835074</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>68</v>
+      </c>
+      <c r="N13" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.88740825548367797</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.84417956280273199</v>
+      </c>
+      <c r="L14" s="18">
+        <v>10</v>
+      </c>
+      <c r="M14" s="19">
+        <v>68</v>
+      </c>
+      <c r="N14" s="19">
+        <v>13.9</v>
+      </c>
+      <c r="O14" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.90056239584851405</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.684204430869231</v>
+      </c>
+      <c r="L15" s="21">
+        <v>100</v>
+      </c>
+      <c r="M15" s="13">
+        <v>68</v>
+      </c>
+      <c r="N15" s="14">
+        <v>5</v>
+      </c>
+      <c r="O15" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="19">
+        <v>68</v>
+      </c>
+      <c r="N16" s="19">
+        <v>5</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8">
+        <v>19626.340621336101</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>72855.471216090198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8">
+        <v>140.094042062238</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8">
+        <v>269.91752669304401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8">
+        <v>83.829077790075203</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="8">
+        <v>131.48856633729699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.89282919253682202</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.84417522693653602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.914928587205175</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.68420410173419599</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="9">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8">
+        <v>27174.828604738399</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="8">
+        <v>72855.906305494194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8">
+        <v>164.84789536035399</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8">
+        <v>269.91833265914698</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="8">
+        <v>87.788343007477593</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="8">
+        <v>131.487237722636</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.92709564564664504</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.84411918945508302</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.88220926628833096</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.68420221581613305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="8">
+        <v>18828.621700261399</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="8">
+        <v>72860.8526750319</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8">
+        <v>137.21742491484599</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8">
+        <v>269.927495218682</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="8">
+        <v>82.537877926147601</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="8">
+        <v>131.47750170469899</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.86958571554136399</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.84371882026316802</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.91838634211416803</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.684180775515423</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="9">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateAverage">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>22</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6146" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProcessData">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>22</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6147" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateReciprocals">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>22</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="22">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/4-Analysis/Neural Network/Neural Network A1-test.xlsx
+++ b/4-Analysis/Neural Network/Neural Network A1-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snegan\Documents\GitHub\AI-Build-Carbon-Predictor\4-Analysis\Neural Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F918E-3616-46C1-86E9-741EF554B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE20E36-C739-47A8-AD65-B95849BD184D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neural Network A1" sheetId="1" r:id="rId1"/>
@@ -764,9 +764,6 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -775,6 +772,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1401,7 +1401,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80963</xdr:colOff>
@@ -1411,147 +1411,137 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphic 2" descr="Link">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B5F07E-1FDB-432B-6779-F456DB041590}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2776538" y="3429000"/>
-          <a:ext cx="428625" cy="428625"/>
+          <a:ext cx="428625" cy="1219200"/>
+          <a:chOff x="2776538" y="3429000"/>
+          <a:chExt cx="428625" cy="1219200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3" descr="Link">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2776538" y="3929063"/>
-          <a:ext cx="428625" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Graphic 4" descr="Link">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2776538" y="4429125"/>
-          <a:ext cx="428625" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Graphic 2" descr="Link">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2776538" y="3429000"/>
+            <a:ext cx="428625" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Graphic 3" descr="Link">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2776538" y="3719513"/>
+            <a:ext cx="428625" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Graphic 4" descr="Link">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2776538" y="4219575"/>
+            <a:ext cx="428625" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4041,7 +4031,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21689835-C01E-4EEF-927D-418AB350B1BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,7 +4084,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04B907E-FBD1-4090-BC6D-5E4F0C1D779F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4147,7 +4137,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8703EBF1-ECB2-4F1D-8806-1BC23B759985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4200,7 +4190,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42B11D3-BBBC-4BC8-B535-85EFF4D2AE93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4253,7 +4243,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C862FF4-41B8-4B43-BA79-8C759A23BC27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4306,7 +4296,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F259C3AA-3909-48C4-A18E-09C9F9744930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4349,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38DECD5-E07E-4839-BCF0-00BA9ACB0A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4412,7 +4402,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C130D1FE-892F-4956-BE80-3802F4474259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4465,7 +4455,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88B8127-4C54-42BF-8019-DEA72B899E08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4518,7 +4508,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5022C2B-5AC5-4DEC-A8C5-263210995963}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4557,23 +4547,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>20</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>114299</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>355890</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
             <xdr:cNvPr id="15" name="Group 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE37601-95CE-4FEB-8843-5A7AF0099961}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4581,7 +4571,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="16306799" y="285750"/>
+              <a:off x="13258799" y="466725"/>
               <a:ext cx="1460791" cy="2019300"/>
               <a:chOff x="5105399" y="504825"/>
               <a:chExt cx="1457327" cy="1143000"/>
@@ -4595,7 +4585,7 @@
                     <a14:compatExt spid="_x0000_s6145"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4644,7 +4634,7 @@
                     <a14:compatExt spid="_x0000_s6146"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4693,7 +4683,7 @@
                     <a14:compatExt spid="_x0000_s6147"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003140000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5703,10 +5693,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="102" xr:uid="{1FD83134-0601-4AC9-AD53-860C252411BF}" name="Table469914137217678103" displayName="Table469914137217678103" ref="L11:O16" totalsRowShown="0">
   <autoFilter ref="L11:O16" xr:uid="{1FD83134-0601-4AC9-AD53-860C252411BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7ED44A4-6505-4548-A53B-9139E13BFB86}" name="Regularization" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{947DDC8F-6A59-4E1A-A388-E796ED6CEC79}" name="Accuracy (%)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4848E4B5-FA9D-45D2-8BF4-422F1B3B296A}" name="Time taken (t) / s" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4F08D1FB-6F5C-4A08-A38A-0B2014395883}" name="Performance (1/t)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D7ED44A4-6505-4548-A53B-9139E13BFB86}" name="Regularization" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{947DDC8F-6A59-4E1A-A388-E796ED6CEC79}" name="Accuracy (%)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4848E4B5-FA9D-45D2-8BF4-422F1B3B296A}" name="Time taken (t) / s" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4F08D1FB-6F5C-4A08-A38A-0B2014395883}" name="Performance (1/t)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5978,8 +5968,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="B2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6110,8 +6100,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6501,14 +6491,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="Button 1">
+            <control shapeId="2049" r:id="rId4" name="Button 1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateAverage">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6530,7 +6521,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId4" name="Button 2">
+            <control shapeId="2050" r:id="rId5" name="Button 2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProcessData">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6552,7 +6543,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId5" name="Button 3">
+            <control shapeId="2051" r:id="rId6" name="Button 3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateReciprocals">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
@@ -6576,7 +6567,6 @@
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="9">
-    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
@@ -6585,6 +6575,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9104,7 +9095,7 @@
   <dimension ref="B2:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9950,16 +9941,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateAverage">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>20</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>22</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9972,16 +9963,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ProcessData">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>20</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>22</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9994,16 +9985,16 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!CalculateReciprocals">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>20</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>22</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
